--- a/docs/source/recursos/milpa_apic/tabla_def_mil_23feb21.xlsx
+++ b/docs/source/recursos/milpa_apic/tabla_def_mil_23feb21.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox (LANCIS)\FOMIX\fmx_estudio_tecnico\diagnostico\talleres\sphinx\docs\source\recursos\milpa_apic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA39D923-26A5-415B-BFFA-8751BE344CCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20962188-4720-4904-B182-6E0E5A106CE3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23145" yWindow="615" windowWidth="15375" windowHeight="12495" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
+    <workbookView xWindow="21270" yWindow="-1560" windowWidth="14580" windowHeight="13980" xr2:uid="{EC4A73D6-3FAA-4DB8-965E-4E6FB890571C}"/>
   </bookViews>
   <sheets>
     <sheet name="Definiciones" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>Distancia a localidades rurales</t>
   </si>
   <si>
-    <t>Precipitación promedio de mayo, junio y julio</t>
-  </si>
-  <si>
     <t>Distancia a carreteras y prolongación</t>
   </si>
   <si>
@@ -165,6 +162,9 @@
   </si>
   <si>
     <t>Distancia a localidades rurales, como centros de vivienda, acopio y comercio.</t>
+  </si>
+  <si>
+    <t>Precipitación promedio de los meses de mayo, junio y julio (meses de inicio de siembra de la milpa).</t>
   </si>
 </sst>
 </file>
@@ -284,7 +284,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AED1674D-5C6C-4F9F-8CF8-5172973DABDC}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -614,8 +614,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +651,7 @@
     </row>
     <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +811,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="2">
         <v>0.16700000000000001</v>
@@ -831,12 +831,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C30" s="7">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="2">
         <v>0.83399999999999996</v>
@@ -868,7 +868,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2">
         <v>0.16600000000000001</v>
@@ -892,7 +892,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38" s="2">
         <v>1</v>
@@ -907,32 +907,32 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
